--- a/htdocs/tools/areamatching/sample.xlsx
+++ b/htdocs/tools/areamatching/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuya/src/github.com/1onepiece/fon-hikari.net/htdocs/tools/areamatching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB27E9EB-4BDC-1B4B-A348-44C018F390FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC4FE49-A09E-6C4E-881A-762E5B2AA944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54240" yWindow="6020" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="2700" yWindow="9580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
   <si>
     <t>自動採番</t>
   </si>
@@ -71,12 +71,224 @@
   </si>
   <si>
     <t>入間市下藤沢　684-8</t>
+  </si>
+  <si>
+    <t>愛知県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>名古屋市昭和区安田通１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>千葉市中央区青葉町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>福岡県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北九州市門司区栄町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岐阜県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各務原市川島河田町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>群馬県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>太田市前小屋町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>札幌市中央区旭ケ丘１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>兵庫県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>伊丹市下河原字牛食</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>茨城県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>取手市小堀</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>横浜市青葉区奈良町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>熊本県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>荒尾市下井手</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>京都市西京区大原野出灰町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>三重県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>桑名郡木曽岬町大字加路戸</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>長野県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>木曽郡南木曽町田立</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>長崎県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>壱岐市郷ノ浦町永田触</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>奈良県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>御所市大字高天</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大阪市旭区高殿１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>佐賀県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神埼市脊振町服巻</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新座市あたご１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>滋賀県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大津市あかね町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>静岡県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>静岡市駿河区みずほ１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>栃木県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>小山市大字中河原</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>千代田区飯田橋１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南都留郡道志村月夜野</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北九州市門司区大字伊川</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岐阜市安良田町１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>太田市高瀬町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>京都市北区衣笠開キ町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>奈良市阿字万字町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神埼郡吉野ヶ里町松隈</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1021,8 +1233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,6 +1309,658 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/htdocs/tools/areamatching/sample.xlsx
+++ b/htdocs/tools/areamatching/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuya/src/github.com/1onepiece/fon-hikari.net/htdocs/tools/areamatching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC4FE49-A09E-6C4E-881A-762E5B2AA944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BDDFA4-41A1-9F4F-A94B-1EC0667D069E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="9580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18300" yWindow="1780" windowWidth="28300" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="84">
   <si>
     <t>自動採番</t>
   </si>
@@ -282,6 +282,62 @@
   </si>
   <si>
     <t>神埼郡吉野ヶ里町松隈</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>野田市岩名</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大牟田市旭町１丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>広島市西区横川新町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>広島県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>三次市四拾貫町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岡山県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岡山市中区さくら住座</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岡山市中区中島</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>野田市上三ケ尾</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>本巣市曽井中島</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>札幌市南区藤野一条９丁目</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神戸市北区八多町上小名田</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>潮来市潮来</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>八王子市犬目町</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1234,11 +1290,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1372,10 +1432,10 @@
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1395,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1418,10 +1478,10 @@
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1441,10 +1501,10 @@
         <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1464,10 +1524,10 @@
         <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1487,10 +1547,10 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1510,10 +1570,10 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1533,10 +1593,10 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1556,10 +1616,10 @@
         <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1579,10 +1639,10 @@
         <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1602,10 +1662,10 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1625,10 +1685,10 @@
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1648,10 +1708,10 @@
         <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1671,10 +1731,10 @@
         <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1694,10 +1754,10 @@
         <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1717,10 +1777,10 @@
         <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1740,10 +1800,10 @@
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1763,10 +1823,10 @@
         <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1786,10 +1846,10 @@
         <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1809,18 +1869,33 @@
         <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1840,10 +1915,10 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1863,10 +1938,10 @@
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1886,10 +1961,10 @@
         <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1909,10 +1984,10 @@
         <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1932,10 +2007,10 @@
         <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1955,10 +2030,286 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
         <v>61</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G40" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
